--- a/src/common/templates/09.Stacking.xlsx
+++ b/src/common/templates/09.Stacking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC666621-3BBB-4ADA-8A60-71D9F9367BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743595A4-2059-4D62-A407-C6D01D507A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19035" yWindow="390" windowWidth="18315" windowHeight="14835" xr2:uid="{F083099F-8B17-4B0D-8564-B6DB029B0CC9}"/>
+    <workbookView xWindow="2475" yWindow="345" windowWidth="21435" windowHeight="14940" xr2:uid="{F083099F-8B17-4B0D-8564-B6DB029B0CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="스택 작업 일지" sheetId="1" r:id="rId1"/>
@@ -23,63 +23,63 @@
     <definedName name="cathodeMagazineLot1">'스택 작업 일지'!$C$16</definedName>
     <definedName name="cathodeMagazineLot2">'스택 작업 일지'!$G$16</definedName>
     <definedName name="cathodeMagazineLot3">'스택 작업 일지'!$K$16</definedName>
-    <definedName name="cleanCheck">'스택 작업 일지'!$G$46</definedName>
-    <definedName name="equipmentCheckResult">'스택 작업 일지'!$C$43</definedName>
-    <definedName name="equipmentIssue">'스택 작업 일지'!$K$43</definedName>
-    <definedName name="hipot1ActualInput">'스택 작업 일지'!$C$25</definedName>
-    <definedName name="hipot1DefectQuantity">'스택 작업 일지'!$G$25</definedName>
-    <definedName name="hipot1DefectRate">'스택 작업 일지'!$K$25</definedName>
-    <definedName name="hipot1DiscardQuantity">'스택 작업 일지'!$I$25</definedName>
-    <definedName name="hipot1GoodQuantity">'스택 작업 일지'!$E$25</definedName>
-    <definedName name="hipotVoltage">'스택 작업 일지'!$G$40</definedName>
-    <definedName name="jellyRollThickness">'스택 작업 일지'!$G$38</definedName>
-    <definedName name="jellyRollWeight">'스택 작업 일지'!$C$38</definedName>
-    <definedName name="jigNumber">'스택 작업 일지'!$G$43</definedName>
-    <definedName name="jr1AnodeLot">'스택 작업 일지'!$E$29</definedName>
-    <definedName name="jr1CathodeLot">'스택 작업 일지'!$C$29</definedName>
-    <definedName name="jr1ElectrodeDefect">'스택 작업 일지'!$K$29</definedName>
-    <definedName name="jr1Range">'스택 작업 일지'!$A$29</definedName>
-    <definedName name="jr1SeparatorLot">'스택 작업 일지'!$G$29</definedName>
-    <definedName name="jr1WorkTime">'스택 작업 일지'!$I$29</definedName>
-    <definedName name="jr2AnodeLot">'스택 작업 일지'!$E$31</definedName>
-    <definedName name="jr2CathodeLot">'스택 작업 일지'!$C$31</definedName>
-    <definedName name="jr2ElectrodeDefect">'스택 작업 일지'!$K$31</definedName>
-    <definedName name="jr2Range">'스택 작업 일지'!$A$31</definedName>
-    <definedName name="jr2SeparatorLot">'스택 작업 일지'!$G$31</definedName>
-    <definedName name="jr2WorkTime">'스택 작업 일지'!$I$31</definedName>
-    <definedName name="jr3AnodeLot">'스택 작업 일지'!$E$33</definedName>
-    <definedName name="jr3CathodeLot">'스택 작업 일지'!$C$33</definedName>
-    <definedName name="jr3ElectrodeDefect">'스택 작업 일지'!$K$33</definedName>
-    <definedName name="jr3Range">'스택 작업 일지'!$A$33</definedName>
-    <definedName name="jr3SeparatorLot">'스택 작업 일지'!$G$33</definedName>
-    <definedName name="jr3WorkTime">'스택 작업 일지'!$I$33</definedName>
-    <definedName name="jr4AnodeLot">'스택 작업 일지'!$E$35</definedName>
-    <definedName name="jr4CathodeLot">'스택 작업 일지'!$C$35</definedName>
-    <definedName name="jr4ElectrodeDefect">'스택 작업 일지'!$K$35</definedName>
-    <definedName name="jr4Range">'스택 작업 일지'!$A$35</definedName>
-    <definedName name="jr4SeparatorLot">'스택 작업 일지'!$G$35</definedName>
-    <definedName name="jr4WorkTime">'스택 작업 일지'!$I$35</definedName>
+    <definedName name="cleanCheck">'스택 작업 일지'!$G$44</definedName>
+    <definedName name="equipmentCheckResult">'스택 작업 일지'!$C$41</definedName>
+    <definedName name="equipmentIssue">'스택 작업 일지'!$K$41</definedName>
+    <definedName name="hipot1ActualInput">'스택 작업 일지'!#REF!</definedName>
+    <definedName name="hipot1DefectQuantity">'스택 작업 일지'!#REF!</definedName>
+    <definedName name="hipot1DefectRate">'스택 작업 일지'!#REF!</definedName>
+    <definedName name="hipot1DiscardQuantity">'스택 작업 일지'!#REF!</definedName>
+    <definedName name="hipot1GoodQuantity">'스택 작업 일지'!#REF!</definedName>
+    <definedName name="hipotVoltage">'스택 작업 일지'!$G$38</definedName>
+    <definedName name="jellyRollThickness">'스택 작업 일지'!$G$36</definedName>
+    <definedName name="jellyRollWeight">'스택 작업 일지'!$C$36</definedName>
+    <definedName name="jigNumber">'스택 작업 일지'!$G$41</definedName>
+    <definedName name="jr1AnodeLot">'스택 작업 일지'!$E$27</definedName>
+    <definedName name="jr1CathodeLot">'스택 작업 일지'!$C$27</definedName>
+    <definedName name="jr1ElectrodeDefect">'스택 작업 일지'!$K$27</definedName>
+    <definedName name="jr1Range">'스택 작업 일지'!$A$27</definedName>
+    <definedName name="jr1SeparatorLot">'스택 작업 일지'!$G$27</definedName>
+    <definedName name="jr1WorkTime">'스택 작업 일지'!$I$27</definedName>
+    <definedName name="jr2AnodeLot">'스택 작업 일지'!$E$29</definedName>
+    <definedName name="jr2CathodeLot">'스택 작업 일지'!$C$29</definedName>
+    <definedName name="jr2ElectrodeDefect">'스택 작업 일지'!$K$29</definedName>
+    <definedName name="jr2Range">'스택 작업 일지'!$A$29</definedName>
+    <definedName name="jr2SeparatorLot">'스택 작업 일지'!$G$29</definedName>
+    <definedName name="jr2WorkTime">'스택 작업 일지'!$I$29</definedName>
+    <definedName name="jr3AnodeLot">'스택 작업 일지'!$E$31</definedName>
+    <definedName name="jr3CathodeLot">'스택 작업 일지'!$C$31</definedName>
+    <definedName name="jr3ElectrodeDefect">'스택 작업 일지'!$K$31</definedName>
+    <definedName name="jr3Range">'스택 작업 일지'!$A$31</definedName>
+    <definedName name="jr3SeparatorLot">'스택 작업 일지'!$G$31</definedName>
+    <definedName name="jr3WorkTime">'스택 작업 일지'!$I$31</definedName>
+    <definedName name="jr4AnodeLot">'스택 작업 일지'!$E$33</definedName>
+    <definedName name="jr4CathodeLot">'스택 작업 일지'!$C$33</definedName>
+    <definedName name="jr4ElectrodeDefect">'스택 작업 일지'!$K$33</definedName>
+    <definedName name="jr4Range">'스택 작업 일지'!$A$33</definedName>
+    <definedName name="jr4SeparatorLot">'스택 작업 일지'!$G$33</definedName>
+    <definedName name="jr4WorkTime">'스택 작업 일지'!$I$33</definedName>
     <definedName name="line">'스택 작업 일지'!$C$9</definedName>
     <definedName name="manufactureDate">'스택 작업 일지'!$C$7</definedName>
     <definedName name="plant">'스택 작업 일지'!$G$9</definedName>
     <definedName name="productionId">'스택 작업 일지'!$G$7</definedName>
-    <definedName name="remark">'스택 작업 일지'!$A$49</definedName>
+    <definedName name="remark">'스택 작업 일지'!$A$47</definedName>
     <definedName name="reviewer">'스택 작업 일지'!$K$5</definedName>
-    <definedName name="safety">'스택 작업 일지'!$K$46</definedName>
+    <definedName name="safety">'스택 작업 일지'!$K$44</definedName>
     <definedName name="separatorInputQuantity">'스택 작업 일지'!$I$14</definedName>
     <definedName name="separatorLot">'스택 작업 일지'!$C$14</definedName>
     <definedName name="separatorManufacturer">'스택 작업 일지'!$E$14</definedName>
     <definedName name="separatorSpec">'스택 작업 일지'!$G$14</definedName>
-    <definedName name="separatorTopBottomDimension">'스택 작업 일지'!$K$38</definedName>
+    <definedName name="separatorTopBottomDimension">'스택 작업 일지'!$K$36</definedName>
     <definedName name="separatorUsage">'스택 작업 일지'!$K$14</definedName>
     <definedName name="shift">'스택 작업 일지'!$K$9</definedName>
     <definedName name="stackActualInput">'스택 작업 일지'!$C$23</definedName>
-    <definedName name="stackCount">'스택 작업 일지'!$C$40</definedName>
+    <definedName name="stackCount">'스택 작업 일지'!$C$38</definedName>
     <definedName name="stackDefectQuantity">'스택 작업 일지'!$G$23</definedName>
     <definedName name="stackDefectRate">'스택 작업 일지'!$K$23</definedName>
     <definedName name="stackDiscardQuantity">'스택 작업 일지'!$I$23</definedName>
     <definedName name="stackGoodQuantity">'스택 작업 일지'!$E$23</definedName>
-    <definedName name="tempHumi">'스택 작업 일지'!$C$46</definedName>
+    <definedName name="tempHumi">'스택 작업 일지'!$C$44</definedName>
     <definedName name="worker">'스택 작업 일지'!$K$7</definedName>
     <definedName name="writer">'스택 작업 일지'!$J$5</definedName>
   </definedNames>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hi-pot1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>JR No,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,6 +352,16 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 불량 현황
+- Hi-pot : 
+- 무게 : 
+- 두께 : 
+- Alignment : 
+※ 특이 사항
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -664,72 +670,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +679,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,8 +823,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -831,18 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,10 +1188,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:L55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1272,20 +1278,20 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
@@ -1358,42 +1364,42 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1402,731 +1408,697 @@
     <row r="13" spans="1:12">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25" t="s">
+      <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="A36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="44"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="A38" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="40"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="35" t="s">
+      <c r="A40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="36"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="38"/>
+      <c r="A41" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="43" t="s">
+      <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" s="48"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="50"/>
+      <c r="A44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="A47" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="62"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="55"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="62"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="62"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="58"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="58"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="62"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="58"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="58"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="61"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:L55"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A37:L37"/>
+  <mergeCells count="113">
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A47:L53"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
     <mergeCell ref="A38:B39"/>
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:F39"/>
     <mergeCell ref="G38:H39"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="I38:L39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="K36:L37"/>
     <mergeCell ref="A33:B34"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:F34"/>

--- a/src/common/templates/09.Stacking.xlsx
+++ b/src/common/templates/09.Stacking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743595A4-2059-4D62-A407-C6D01D507A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1886C95-4D8D-49FD-8E4E-5FDCF9124BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="345" windowWidth="21435" windowHeight="14940" xr2:uid="{F083099F-8B17-4B0D-8564-B6DB029B0CC9}"/>
+    <workbookView xWindow="3915" yWindow="540" windowWidth="14340" windowHeight="14940" xr2:uid="{F083099F-8B17-4B0D-8564-B6DB029B0CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="스택 작업 일지" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>스택 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -320,10 +320,6 @@
   </si>
   <si>
     <t>설비 점검 결과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +358,22 @@
 - Alignment : 
 ※ 특이 사항
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -661,13 +673,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -679,25 +688,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,12 +700,33 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,9 +749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,8 +1202,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1200,17 +1212,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1222,394 +1234,394 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="10" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="30" t="s">
         <v>35</v>
       </c>
@@ -1632,8 +1644,8 @@
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -1646,140 +1658,140 @@
       <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="35" t="s">
@@ -1850,20 +1862,20 @@
       <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="47" t="s">
@@ -1871,21 +1883,21 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="51" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
       <c r="I41" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" s="48"/>
       <c r="K41" s="51" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L41" s="52"/>
     </row>
@@ -1904,74 +1916,80 @@
       <c r="L42" s="54"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="9"/>
+      <c r="K44" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="58"/>
       <c r="C47" s="58"/>
